--- a/Crawling/music/crawled_data/outlier_data/2022-05-09_2022-05-15/naver_datalab/outliers/다시 만날 수 있을까_임영웅.xlsx
+++ b/Crawling/music/crawled_data/outlier_data/2022-05-09_2022-05-15/naver_datalab/outliers/다시 만날 수 있을까_임영웅.xlsx
@@ -17,7 +17,7 @@
     <t>url</t>
   </si>
   <si>
-    <t>http://datalab.naver.com/keyword/trendResult.naver?hashKey=N_8efca83ec88ba958dd8dedffaa5447f1</t>
+    <t>http://datalab.naver.com/keyword/trendResult.naver?hashKey=N_8739be18a3b06b198a48393239fd84aa</t>
   </si>
   <si>
     <t>주제</t>
@@ -35,7 +35,7 @@
     <t>기간</t>
   </si>
   <si>
-    <t>일간 : 2022-04-16 ~ 2022-05-16</t>
+    <t>일간 : 2022-04-18 ~ 2022-05-18</t>
   </si>
   <si>
     <t>성별</t>
@@ -56,18 +56,6 @@
     <t>다시 만날 수 있을까</t>
   </si>
   <si>
-    <t>2022-04-16</t>
-  </si>
-  <si>
-    <t>0.17543</t>
-  </si>
-  <si>
-    <t>2022-04-17</t>
-  </si>
-  <si>
-    <t>0.24561</t>
-  </si>
-  <si>
     <t>2022-04-18</t>
   </si>
   <si>
@@ -216,6 +204,18 @@
   </si>
   <si>
     <t>28.77192</t>
+  </si>
+  <si>
+    <t>2022-05-17</t>
+  </si>
+  <si>
+    <t>25.36842</t>
+  </si>
+  <si>
+    <t>2022-05-18</t>
+  </si>
+  <si>
+    <t>20.94736</t>
   </si>
 </sst>
 </file>
@@ -335,95 +335,95 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
         <v>31</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="21">
